--- a/xlsx/紐西蘭_intext.xlsx
+++ b/xlsx/紐西蘭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>紐西蘭王國</t>
   </si>
   <si>
-    <t>政策_政策_政治_紐西蘭</t>
+    <t>体育运动_体育运动_橄榄球类运动_紐西蘭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -3836,10 +3836,10 @@
     <t>婆罗洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>勞特島</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E7%89%B9%E5%B2%9B_(%E5%A4%A7%E5%B7%BD%E4%BB%96%E7%BE%A4%E5%B2%9B)</t>
+  </si>
+  <si>
+    <t>劳特岛 (大巽他群岛)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B8%83%E5%BA%AB%E5%B3%B6_(%E5%A9%86%E7%BE%85%E6%B4%B2)</t>
